--- a/forecast_summary_B0BH9BBLHB.xlsx
+++ b/forecast_summary_B0BH9BBLHB.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>0.002493649344245759</v>
       </c>
       <c r="D2" t="n">
-        <v>19.22844834285663</v>
+        <v>20.09121992278702</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z790 AERO G</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>2.70318504089975</v>
       </c>
       <c r="D3" t="n">
-        <v>23.68252964686414</v>
+        <v>20.99685676665645</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z790 AERO G</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>6.739061393457391</v>
       </c>
       <c r="D4" t="n">
-        <v>26.42600192210935</v>
+        <v>26.24634310790872</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z790 AERO G</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
         <v>7.593663413365531</v>
       </c>
       <c r="D5" t="n">
-        <v>28.81955354415377</v>
+        <v>26.78346152574784</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z790 AERO G</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>4.809911135793832</v>
       </c>
       <c r="D6" t="n">
-        <v>25.15446482984332</v>
+        <v>25.43272096676625</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z790 AERO G</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>1.752704248648746</v>
       </c>
       <c r="D7" t="n">
-        <v>21.42945872155948</v>
+        <v>21.70258419635724</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z790 AERO G</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>1.097135031866462</v>
       </c>
       <c r="D8" t="n">
-        <v>21.29997397467052</v>
+        <v>20.71810017294288</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z790 AERO G</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>1.932493187456355</v>
       </c>
       <c r="D9" t="n">
-        <v>21.56330123548838</v>
+        <v>22.56668003347971</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z790 AERO G</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>1.94610075982271</v>
       </c>
       <c r="D10" t="n">
-        <v>22.07153174659094</v>
+        <v>22.55702369268909</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z790 AERO G</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +838,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>1.451133722187197</v>
       </c>
       <c r="D11" t="n">
-        <v>21.65023452746532</v>
+        <v>21.13546796151538</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z790 AERO G</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -842,13 +877,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
         <v>3.600012451161239</v>
       </c>
       <c r="D12" t="n">
-        <v>23.21568501221135</v>
+        <v>23.85844263227142</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z790 AERO G</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>10.07743009028079</v>
       </c>
       <c r="D13" t="n">
-        <v>31.16326140095995</v>
+        <v>29.45788113421546</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z790 AERO G</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -914,13 +955,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
         <v>17.64062675014582</v>
       </c>
       <c r="D14" t="n">
-        <v>38.51197626778001</v>
+        <v>36.80340304350794</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z790 AERO G</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -950,13 +994,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
         <v>20.31237569051046</v>
       </c>
       <c r="D15" t="n">
-        <v>40.06431582314183</v>
+        <v>41.24491893875802</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z790 AERO G</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>15.31371448524886</v>
       </c>
       <c r="D16" t="n">
-        <v>34.40216938003851</v>
+        <v>35.38716750497447</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z790 AERO G</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>6.124382633356286</v>
       </c>
       <c r="D17" t="n">
-        <v>26.07462220595612</v>
+        <v>26.64901475292192</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z790 AERO G</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-0.8423143632871593</v>
       </c>
       <c r="D18" t="n">
-        <v>18.30892974129816</v>
+        <v>19.92080369719671</v>
       </c>
       <c r="E18" t="n">
         <v>6</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z790 AERO G</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
         <v>-2.255373860228522</v>
       </c>
       <c r="D19" t="n">
-        <v>18.76429918221086</v>
+        <v>16.21755971224589</v>
       </c>
       <c r="E19" t="n">
         <v>6</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z790 AERO G</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
         <v>-0.1061166190003545</v>
       </c>
       <c r="D20" t="n">
-        <v>18.2052778535726</v>
+        <v>19.97954262418897</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z790 AERO G</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>1.621200011566026</v>
       </c>
       <c r="D21" t="n">
-        <v>22.39085672229362</v>
+        <v>20.81901605483607</v>
       </c>
       <c r="E21" t="n">
         <v>6</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z790 AERO G</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>198</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1445,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
